--- a/UnitTests/Tests/SwaptionVolatility.xlsx
+++ b/UnitTests/Tests/SwaptionVolatility.xlsx
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E3">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D29" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <f t="shared" ref="D4:D29" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E4">
@@ -742,7 +742,7 @@
       </c>
       <c r="G14" t="str">
         <f>_xll.qlConstantSwaptionVolatility(,2,"target","mf",1,"actual/360")</f>
-        <v>obj_00001#0000</v>
+        <v>obj_000c5#0000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -752,9 +752,9 @@
       <c r="B15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D15" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E15" t="e">
         <f>NA()</f>
@@ -771,9 +771,9 @@
       <c r="B16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E16" t="e">
         <f>NA()</f>
@@ -787,9 +787,9 @@
       <c r="B17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E17" t="e">
         <f>NA()</f>
@@ -803,9 +803,9 @@
       <c r="B18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D18" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E18" t="e">
         <f>NA()</f>
@@ -819,9 +819,9 @@
       <c r="B19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E19" t="e">
         <f>NA()</f>
@@ -835,9 +835,9 @@
       <c r="B20" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D20" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E20" t="e">
         <f>_xll.qlSwaptionVolCube2("sv05",G14,"1m","2m",K20:K21,K20:K21,G20,G20,TRUE)</f>
@@ -845,11 +845,11 @@
       </c>
       <c r="G20" t="str">
         <f>_xll.qlSwapIndex(,"euribor","1d",2,"eur","target","1y","mf","actual/360",I20)</f>
-        <v>obj_00003#0000</v>
+        <v>obj_000c8#0000</v>
       </c>
       <c r="I20" t="str">
         <f>_xll.qlIborIndex(,"euribor","1d",2,"eur","target","mf",TRUE,"actual/360")</f>
-        <v>obj_00002#0000</v>
+        <v>obj_000c6#0000</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -862,9 +862,9 @@
       <c r="B21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D21" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E21" t="e">
         <f>NA()</f>
@@ -881,9 +881,9 @@
       <c r="B22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D22" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E22" t="e">
         <f>NA()</f>
@@ -897,9 +897,9 @@
       <c r="B23" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D23" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E23" t="e">
         <f>_xll.qlSwaptionVolCube1("sv06",G14,"1m","2m",1,1,G20,+G20,TRUE,1,TRUE,TRUE)</f>
@@ -913,9 +913,9 @@
       <c r="B24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D24" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E24" t="e">
         <f>NA()</f>
@@ -929,9 +929,9 @@
       <c r="B25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D25" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E25" t="e">
         <f>NA()</f>
@@ -945,9 +945,9 @@
       <c r="B26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D26" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E26" t="e">
         <f>NA()</f>
@@ -961,9 +961,9 @@
       <c r="B27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D27" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E27" t="e">
         <f>NA()</f>
@@ -985,9 +985,9 @@
       <c r="B28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E28" t="e">
         <f>_xll.qlSmileSectionByCube("sv07",E23,G28,"1M")</f>
@@ -1009,9 +1009,9 @@
       <c r="B29" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E29" t="e">
         <f>_xll.qlSmileSectionByCube2("sv09",E23,G28,"1M")</f>

--- a/UnitTests/Tests/SwaptionVolatility.xlsx
+++ b/UnitTests/Tests/SwaptionVolatility.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$29</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -147,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yyyy;@"/>
   </numFmts>
@@ -208,12 +213,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -255,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,9 +296,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,6 +348,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -507,7 +549,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -560,9 +602,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3">
-        <f>_xll.qlSwaptionVTSVolatility(E13,G29,"1M",1,TRUE)</f>
-        <v>1</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlSwaptionVTSVolatility(E13,G29,"1M",1,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -576,9 +618,9 @@
         <f t="shared" ref="D4:D29" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4">
-        <f>_xll.qlSwaptionVTSVolatility2(E13,"1M","1M",1,TRUE)</f>
-        <v>1</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlSwaptionVTSVolatility2(E13,"1M","1M",1,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,9 +634,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5">
-        <f>_xll.qlSwaptionVTSBlackVariance(E13,G29,"1M",1,TRUE)</f>
-        <v>7.4999999999999997E-2</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlSwaptionVTSBlackVariance(E13,G29,"1M",1,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -608,9 +650,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E6">
-        <f>_xll.qlSwaptionVTSBlackVariance2(E13,"1M","1M",1,TRUE)</f>
-        <v>8.611111111111111E-2</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlSwaptionVTSBlackVariance2(E13,"1M","1M",1,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,9 +666,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7" t="str">
-        <f>_xll.qlSwaptionVTSMaxSwapTenor(E13)</f>
-        <v>100Y</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlSwaptionVTSMaxSwapTenor(E13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,9 +682,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E8" t="str">
-        <f>_xll.qlSwaptionVTSBusinessDayConvention(E13)</f>
-        <v>Modified Following</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlSwaptionVTSBusinessDayConvention(E13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -656,9 +698,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E9" s="4">
-        <f>_xll.qlSwaptionVTSOptionDateFromTenor(E13,"1M")</f>
-        <v>42678</v>
+      <c r="E9" s="4" t="e">
+        <f ca="1">_xll.qlSwaptionVTSOptionDateFromTenor(E13,"1M")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,9 +714,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E10">
-        <f>_xll.qlSwaptionVTSSwapLength(E13,"1M")</f>
-        <v>8.3333333333333329E-2</v>
+      <c r="E10" t="e">
+        <f ca="1">_xll.qlSwaptionVTSSwapLength(E13,"1M")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,9 +730,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E11">
-        <f>_xll.qlSwaptionVTSSwapLength2(E13,G27,G29)</f>
-        <v>8.3333333333333329E-2</v>
+      <c r="E11" t="e">
+        <f ca="1">_xll.qlSwaptionVTSSwapLength2(E13,G27,G29)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -704,9 +746,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E12" t="str">
-        <f>_xll.qlRelinkableHandleSwaptionVolatilityStructure("sv01")</f>
-        <v>sv01#0000</v>
+      <c r="E12" t="e">
+        <f ca="1">_xll.qlRelinkableHandleSwaptionVolatilityStructure("sv01")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,9 +762,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E13" t="str">
-        <f>_xll.qlConstantSwaptionVolatility("sv02",2,"target","mf",1,"actual/360")</f>
-        <v>sv02#0000</v>
+      <c r="E13" t="e">
+        <f ca="1">_xll.qlConstantSwaptionVolatility("sv02",2,"target","mf",1,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,13 +778,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E14" t="str">
-        <f>_xll.qlSpreadedSwaptionVolatility("sv03",G14,1)</f>
-        <v>sv03#0000</v>
-      </c>
-      <c r="G14" t="str">
-        <f>_xll.qlConstantSwaptionVolatility(,2,"target","mf",1,"actual/360")</f>
-        <v>obj_000c5#0000</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlSpreadedSwaptionVolatility("sv03",G14,1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G14" t="e">
+        <f ca="1">_xll.qlConstantSwaptionVolatility(,2,"target","mf",1,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,16 +882,16 @@
         <v>ERROR</v>
       </c>
       <c r="E20" t="e">
-        <f>_xll.qlSwaptionVolCube2("sv05",G14,"1m","2m",K20:K21,K20:K21,G20,G20,TRUE)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G20" t="str">
-        <f>_xll.qlSwapIndex(,"euribor","1d",2,"eur","target","1y","mf","actual/360",I20)</f>
-        <v>obj_000c8#0000</v>
-      </c>
-      <c r="I20" t="str">
-        <f>_xll.qlIborIndex(,"euribor","1d",2,"eur","target","mf",TRUE,"actual/360")</f>
-        <v>obj_000c6#0000</v>
+        <f ca="1">_xll.qlSwaptionVolCube2("sv05",G14,"1m","2m",K20:K21,K20:K21,G20,G20,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" t="e">
+        <f ca="1">_xll.qlSwapIndex(,"euribor","1d",2,"eur","target","1y","mf","actual/360",I20)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" t="e">
+        <f ca="1">_xll.qlIborIndex(,"euribor","1d",2,"eur","target","mf",TRUE,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -902,8 +944,8 @@
         <v>ERROR</v>
       </c>
       <c r="E23" t="e">
-        <f>_xll.qlSwaptionVolCube1("sv06",G14,"1m","2m",1,1,G20,+G20,TRUE,1,TRUE,TRUE)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlSwaptionVolCube1("sv06",G14,"1m","2m",1,1,G20,+G20,TRUE,1,TRUE,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -969,13 +1011,13 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G27">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
-      </c>
-      <c r="H27" s="4">
-        <f>G27</f>
-        <v>42644</v>
+      <c r="G27" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H27" s="4" t="e">
+        <f ca="1">G27</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -990,16 +1032,16 @@
         <v>ERROR</v>
       </c>
       <c r="E28" t="e">
-        <f>_xll.qlSmileSectionByCube("sv07",E23,G28,"1M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28">
-        <f>G27+1</f>
-        <v>42645</v>
-      </c>
-      <c r="H28" s="4">
-        <f>G28</f>
-        <v>42645</v>
+        <f ca="1">_xll.qlSmileSectionByCube("sv07",E23,G28,"1M")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G28" t="e">
+        <f ca="1">G27+1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H28" s="4" t="e">
+        <f ca="1">G28</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1014,16 +1056,16 @@
         <v>ERROR</v>
       </c>
       <c r="E29" t="e">
-        <f>_xll.qlSmileSectionByCube2("sv09",E23,G28,"1M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29">
-        <f>G27+30</f>
-        <v>42674</v>
-      </c>
-      <c r="H29" s="4">
-        <f>G29</f>
-        <v>42674</v>
+        <f ca="1">_xll.qlSmileSectionByCube2("sv09",E23,G28,"1M")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G29" t="e">
+        <f ca="1">G27+30</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H29" s="4" t="e">
+        <f ca="1">G29</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1033,26 +1075,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
